--- a/edh.xlsx
+++ b/edh.xlsx
@@ -458,48 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>國人普遍鈣質攝取不足！營養師：想維持行動力？可多補充這些營養素</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 國人普遍鈣質攝取不足！營養師：想維持行動力？可多補充這些營養素]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-10-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56,494</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>存股菜鳥該存哪些？過來人建議「官股金控、國民ETF」3方案這樣選</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 存股菜鳥該存哪些？過來人建議「官股金控、國民ETF」3方案這樣選]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-01 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 470,055</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -528,144 +524,132 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>女神舒淇嘆少女體態回不去！4招獨門祕訣讓她不愛運動還能瘦</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 女神舒淇嘆少女體態回不去！4招獨門祕訣讓她不愛運動還能瘦]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-01 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70,524</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>對付便祕、鼻過敏的穴道地圖！2招經絡瑜伽對症自療</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 放鬆舒緩運動, 瑜伽, 對付便祕、鼻過敏的穴道地圖！2招經絡瑜伽對症自療]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10,973</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>改善水腫腰痛、手腳冰冷！一招抗老瑜伽溫和打通堵塞的經絡</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 放鬆舒緩運動, 瑜伽, 改善水腫腰痛、手腳冰冷！一招抗老瑜伽溫和打通堵塞的經絡]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,436</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鴻喜菇少農藥，免清洗就可下鍋！一個動作提升菇類3倍鮮味</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 其他健康食材, 鴻喜菇少農藥，免清洗就可下鍋！一個動作提升菇類3倍鮮味]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-10-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 257,153</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>全榖飲食降3成中風、糖尿病風險，大腸癌機率也下降！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 營養均衡, 全榖飲食降3成中風、糖尿病風險，大腸癌機率也下降！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-14 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,487</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>只要15分鐘，企業防疫人人做足！台灣羅氏診斷xH2U永悅健康，開展防疫職場照護新服務</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 只要15分鐘，企業防疫人人做足！台灣羅氏診斷xH2U永悅健康，開展防疫職場照護新服務]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-01 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,942</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -716,48 +700,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>超簡單2個動作不再腰痛脖子痠，用一條毛巾就改善你的烏龜頸</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 疼痛醫學, 腰痠背痛, 超簡單2個動作不再腰痛脖子痠，用一條毛巾就改善你的烏龜頸]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-20 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,611</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>偏頭痛增6成腦退化風險！6個症狀暗示你：不是吃藥止痛就沒事</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 對抗老化, 偏頭痛增6成腦退化風險！6個症狀暗示你：不是吃藥止痛就沒事]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16,794</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -786,24 +766,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>腿圍少1公分，糖尿病機率竟多9％！3分鐘畫圈練大腿肌肉降血糖</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 運動養生, 運動好處, 腿圍少1公分，糖尿病機率竟多9％！3分鐘畫圈練大腿肌肉降血糖]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,287</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -832,24 +810,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>降14％心血管疾病的堅果之王是它！一天2顆還能抗糖尿病</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 堅果類, 降14％心血管疾病的堅果之王是它！一天2顆還能抗糖尿病]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -922,48 +898,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>擔心糖尿病、高血壓？無花果吃出4大功效，降膽固醇也在內！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 其他健康食材, 擔心糖尿病、高血壓？無花果吃出4大功效，降膽固醇也在內！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-04 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13,502</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>天生金魚腦？大腦記憶如橡皮筋，3招「延展」防失智健忘</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 對抗老化, 天生金魚腦？大腦記憶如橡皮筋，3招「延展」防失智健忘]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-14 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,936</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1014,24 +986,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>早餐是最重要的一餐？醫師提新觀點：3種人反而適合不吃早餐</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 早餐是最重要的一餐？醫師提新觀點：3種人反而適合不吃早餐]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-21 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 158,860</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1214,24 +1184,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>棉花棒掏耳朵釀腦部感染！避免耳垢向內推如何安全清耳道？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 棉花棒掏耳朵釀腦部感染！避免耳垢向內推如何安全清耳道？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 192,640</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1260,264 +1228,242 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>分批匯錢給子女，竟遭課稅千萬元！贈與誤踩3地雷，小心被國稅局盯上</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 分批匯錢給子女，竟遭課稅千萬元！贈與誤踩3地雷，小心被國稅局盯上]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,641,603</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>預防癌症！酪梨、堅果就有的3大抗氧化營養＝維生素王牌！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 維生素, 預防癌症！酪梨、堅果就有的3大抗氧化營養＝維生素王牌！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 74,750</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>抗老護肝、預防心臟病就吃它！青花菜、薑黃的七彩多酚養生術</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 其他營養素, 抗老護肝、預防心臟病就吃它！青花菜、薑黃的七彩多酚養生術]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,941</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>大腸癌近來增加中！解決便祕強免疫，一招幫腸道「掃毒」！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 其他營養素, 大腸癌近來增加中！解決便祕強免疫，一招幫腸道「掃毒」！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,265</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>醫師給病人的處方是讀《心經》！科學實證冥想10分鐘能護心降血壓</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 身心健康, 壓力紓解, 醫師給病人的處方是讀《心經》！科學實證冥想10分鐘能護心降血壓]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17,360</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>不到3個月瘦7公斤就靠7個小訣竅！金牌冠軍主廚減醣餐食譜大公開</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 低碳飲食, 不到3個月瘦7公斤就靠7個小訣竅！金牌冠軍主廚減醣餐食譜大公開]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16,843</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>金牌名廚推薦低醣蔬菜採買清單！五行蔬菜湯越吃越瘦、排便也超順</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 低碳飲食, 金牌名廚推薦低醣蔬菜採買清單！五行蔬菜湯越吃越瘦、排便也超順]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,517</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>【動動生活　健康久久】居家運動圖文徵選活動</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 【動動生活　健康久久】居家運動圖文徵選活動]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99,208</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>雙鐵KTV開放飲食！最新防疫規定一次看，7情況免戴口罩</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 雙鐵KTV開放飲食！最新防疫規定一次看，7情況免戴口罩]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-02 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 175,846</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>研究指出：飲食中的這1個關鍵因子，有助於啟動年輕因子</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 研究指出：飲食中的這1個關鍵因子，有助於啟動年輕因子]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58,216</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>立冬進補同時養腎健腦！中醫師列補冬食材讓你不怕補過頭</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 周宗翰中醫師, 立冬進補同時養腎健腦！中醫師列補冬食材讓你不怕補過頭]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,973</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1546,504 +1492,462 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>便祕一週診斷是腸癌！4種症狀還會併發腸子壞死、腹膜炎！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 衛福部南投醫院, 便祕一週診斷是腸癌！4種症狀還會併發腸子壞死、腹膜炎！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,973</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>濕熱體質容易汗皰疹！4招中醫調理止癢，類固醇停藥也不復發</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 濕熱體質容易汗皰疹！4招中醫調理止癢，類固醇停藥也不復發]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16,915</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>肥胖引發多囊性卵巢？醫生：做錯2件事，都會讓卵巢停止排卵</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 肥胖引發多囊性卵巢？醫生：做錯2件事，都會讓卵巢停止排卵]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-13 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,938</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>步伐小的人更容易失智！研究實測：認知衰退風險高3倍</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 運動養生, 運動好處, 步伐小的人更容易失智！研究實測：認知衰退風險高3倍]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17,069</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>走路5種特徵看腦中風、阿茲海默症！博士一個訣竅走出軟Q血管</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 運動養生, 運動好處, 走路5種特徵看腦中風、阿茲海默症！博士一個訣竅走出軟Q血管]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 718,881</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>非基改、無加糖還不夠！營養師：豆奶這樣挑，只有黃豆和水，100％無添加安心又營養</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 非基改、無加糖還不夠！營養師：豆奶這樣挑，只有黃豆和水，100％無添加安心又營養]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-03 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 242,080</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>減肥老是卡關！營養師一圖揭18種殘酷原因：難怪越減越肥</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 減肥老是卡關！營養師一圖揭18種殘酷原因：難怪越減越肥]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,190</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>研究公布降血糖血脂的訣竅！早餐吃得像皇帝，能讓你瘦更多？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 營養師/營養醫學, 呂孟凡營養師, 研究公布降血糖血脂的訣竅！早餐吃得像皇帝，能讓你瘦更多？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-04 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 407,096</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>勞保中斷多年，65歲還能領老年給付嗎？2情況看懂能領多少錢</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 勞保中斷多年，65歲還能領老年給付嗎？2情況看懂能領多少錢]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 644,444</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>防中風吃什麼？日本研究公布護血管食材：降20％腦梗塞機率</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 防中風吃什麼？日本研究公布護血管食材：降20％腦梗塞機率]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 388,504</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>沒感冒卻慢性咳嗽、呼吸衰竭！洗浴室竟是感染原因</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 沒感冒卻慢性咳嗽、呼吸衰竭！洗浴室竟是感染原因]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 141,314</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>搭ETF除息熱？ETF菜鳥最常犯「5種賠錢買法」慘變冤大頭！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 搭ETF除息熱？ETF菜鳥最常犯「5種賠錢買法」慘變冤大頭！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-04 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 420,647</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>網購蔬果農藥超標36倍！選購注意4標章、3步驟徹底洗乾淨</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 網購蔬果農藥超標36倍！選購注意4標章、3步驟徹底洗乾淨]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-04 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18,366</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>體脂26％到20％！潘慧如的女神餐這樣吃，5招甩肉肚拒當泡芙人</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 體脂26％到20％！潘慧如的女神餐這樣吃，5招甩肉肚拒當泡芙人]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-04 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68,551</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>運動不做白工！營養師私房菜單教你吃對食物，增肌減脂效率超高</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 運動不做白工！營養師私房菜單教你吃對食物，增肌減脂效率超高]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15,999</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>潘慧如這樣瘦出川字腹肌！營養師不藏私教你：運動前後吃什麼最減脂增肌</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 潘慧如這樣瘦出川字腹肌！營養師不藏私教你：運動前後吃什麼最減脂增肌]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18,620</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>蘋果果蠟能吃嗎？注意農藥更重要！1步驟讓蘋果自然退酸更香甜</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 蘋果, 蘋果果蠟能吃嗎？注意農藥更重要！1步驟讓蘋果自然退酸更香甜]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,617</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>氣色不佳、雙眼無神怎麼辦？７種食物幫你紅潤氣色、晶亮有神！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 氣色不佳、雙眼無神怎麼辦？７種食物幫你紅潤氣色、晶亮有神！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,810</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>國民阿嬤王滿嬌吃藥沒配水吐血一週！避免食道潰瘍2撇步不卡藥</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康醫療, 藥品安全, 國民阿嬤王滿嬌吃藥沒配水吐血一週！避免食道潰瘍2撇步不卡藥]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25,730</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>一天10杯咖啡當水喝，重病差點醒不來！營養師：6族群慎防咖啡因過量</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 咖啡, 一天10杯咖啡當水喝，重病差點醒不來！營養師：6族群慎防咖啡因過量]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,548</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>【會員限定】1111爽購同學會：11/5-11/13 結帳輸入【EDH11】現折111元，再抽全聯500元禮券和711提貨券！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 生活便利貼, 生活便利貼, 【會員限定】1111爽購同學會：11/5-11/13 結帳輸入【EDH11】現折111元，再抽全聯500元禮券和711提貨券！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-05 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,163</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2072,264 +1976,242 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>改善偏頭痛飲食要吃什麼？研究發現2方法讓偏頭痛時間大減40％</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 疼痛醫學, 頭痛/偏頭痛, 改善偏頭痛飲食要吃什麼？研究發現2方法讓偏頭痛時間大減40％]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-06 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8,870</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>預防骨質疏鬆靠游泳不夠！真正提高骨密度運動要有3大特質</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 預防骨質疏鬆靠游泳不夠！真正提高骨密度運動要有3大特質]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10,332</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>早餐必吃蛋、午餐以菜配飯！他3個月狠甩22kg，逆轉脂肪肝炎降血壓</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 早餐必吃蛋、午餐以菜配飯！他3個月狠甩22kg，逆轉脂肪肝炎降血壓]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 619,138</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>早餐雞蛋、午餐奇異果！三餐特選食材，降血壓排毒效果加倍好</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 營養均衡, 早餐雞蛋、午餐奇異果！三餐特選食材，降血壓排毒效果加倍好]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 154,229</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>誤踩2地雷，冰箱竟比廁所地板髒！4招冰箱收納法乾淨好收又好拿</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 清潔/打掃, 誤踩2地雷，冰箱竟比廁所地板髒！4招冰箱收納法乾淨好收又好拿]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233,921</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>她體脂率46變26、瘦60kg！醫生卻說這不叫增肌減脂，反而肌少症</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 她體脂率46變26、瘦60kg！醫生卻說這不叫增肌減脂，反而肌少症]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 85,128</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>高血壓、高血糖食譜對策！生薑加料4個方法降血壓、預防動脈硬化</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 薑, 高血壓、高血糖食譜對策！生薑加料4個方法降血壓、預防動脈硬化]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 115,057</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0050太貴？6檔0050的兄弟版ETF績效出列，最便宜僅0050的3折價</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 0050太貴？6檔0050的兄弟版ETF績效出列，最便宜僅0050的3折價]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 176,887</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>洗髮精加水稀釋竟致掉髮！正確節省確保2件事才不養菌</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 身體清潔, 洗髮精加水稀釋竟致掉髮！正確節省確保2件事才不養菌]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58,190</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>高血脂就像心肌梗塞未爆彈！眼睛出現3個症狀，當心高血脂徵兆</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 高血脂就像心肌梗塞未爆彈！眼睛出現3個症狀，當心高血脂徵兆]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 793,043</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>粒線體原來是減肥大功臣！6分鐘間歇健走喚醒粒線體燃脂力</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 粒線體原來是減肥大功臣！6分鐘間歇健走喚醒粒線體燃脂力]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,544</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2380,576 +2262,528 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>少吃竟然越減越肥！調控瘦身荷爾蒙3大絕招：多吃蛋也有用</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 少吃竟然越減越肥！調控瘦身荷爾蒙3大絕招：多吃蛋也有用]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,934</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>指甲沒月牙代表內臟生病？中醫教你從顏色、形狀看健康</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 賴睿昕中醫師, 指甲沒月牙代表內臟生病？中醫教你從顏色、形狀看健康]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-09 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 625,636</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>大便別急著沖掉！不只血便要注意，這3種顏色都在透露生病警訊</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 大便別急著沖掉！不只血便要注意，這3種顏色都在透露生病警訊]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-08 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 125,503</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>小腹凸凸生百病！2張圖教你不內八不駝背、改善內臟下垂治便祕</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 小腹凸凸生百病！2張圖教你不內八不駝背、改善內臟下垂治便祕]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14,197</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>輕度腰痛必學的30秒解痛伸展！鬆開腹斜肌、矯正骨盆歪斜救腰痛</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 疼痛醫學, 腰痠背痛, 輕度腰痛必學的30秒解痛伸展！鬆開腹斜肌、矯正骨盆歪斜救腰痛]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,900</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>魚油抗關節炎無感怎麼辦？專家建議改良作法</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 魚油抗關節炎無感怎麼辦？專家建議改良作法]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59,163</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>耳鳴可能和腦血管病變有關！3種判別方法嚴防中風率攀升</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 照護線上, 耳鳴可能和腦血管病變有關！3種判別方法嚴防中風率攀升]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,577</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>膽固醇正常也難逃心肌梗塞！醫：防血管堵塞重點不在膽固醇多高</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 聯安預防醫學機構, 膽固醇正常也難逃心肌梗塞！醫：防血管堵塞重點不在膽固醇多高]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 183,841</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>準媳婦不簽分別財產制，是想分我兒子的錢？呂秋遠苦勸最好思考這些事</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 生活智慧, 準媳婦不簽分別財產制，是想分我兒子的錢？呂秋遠苦勸最好思考這些事]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-10 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 466,673</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>從肩膀痛到膝蓋痛！7種症狀放著不管，代表身體準備骨質疏鬆了！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 鈣, 從肩膀痛到膝蓋痛！7種症狀放著不管，代表身體準備骨質疏鬆了！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15,301</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>不吃早餐卻愛吃水果？阻止血糖狂飆，3招拒當糖化「肉鬆女」</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 不吃早餐卻愛吃水果？阻止血糖狂飆，3招拒當糖化「肉鬆女」]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,816</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>菠菜被點名！立冬後的防病進補清單：清身體的熱、養冬天的肝</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 菠菜被點名！立冬後的防病進補清單：清身體的熱、養冬天的肝]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185,887</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>減肥最輕鬆的時機到！入冬10大保命錦囊降血壓、遠離腦中風</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 減肥最輕鬆的時機到！入冬10大保命錦囊降血壓、遠離腦中風]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,632</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>45歲退休玩遍世界！老總真心建言：想提早財務獨立1件事遠勝投資理財</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 45歲退休玩遍世界！老總真心建言：想提早財務獨立1件事遠勝投資理財]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 507,431</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>濱崎步過敏性休克一度昏迷！預防過敏性休克4守則救你一命</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 濱崎步過敏性休克一度昏迷！預防過敏性休克4守則救你一命]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 86,229</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>李明依頸椎間盤突出劇痛開刀！醫師教3個放鬆動作助你遠離頸椎病</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 疼痛醫學, 肩頸痠痛, 李明依頸椎間盤突出劇痛開刀！醫師教3個放鬆動作助你遠離頸椎病]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17,787</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>每天喝牛奶怎麼還骨質疏鬆？3個正確觀念，不讓補鈣做白工</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 聯安預防醫學機構, 每天喝牛奶怎麼還骨質疏鬆？3個正確觀念，不讓補鈣做白工]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,986</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>更年期後不漏尿！瑜伽3種動作強化骨盆底肌練核心</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 放鬆舒緩運動, 瑜伽, 更年期後不漏尿！瑜伽3種動作強化骨盆底肌練核心]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,225</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>全台急凍低溫探13°C！睡前做好4件事遠離中風心臟病</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 全台急凍低溫探13°C！睡前做好4件事遠離中風心臟病]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122,734</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7分鐘上桌、一碗70大卡！微波爐就能做的減醣蔬菜湯食譜必收</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 低碳飲食, 7分鐘上桌、一碗70大卡！微波爐就能做的減醣蔬菜湯食譜必收]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-14 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,579</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>減醣瘦身湯！芝麻蘿蔔湯熱熱喝，蛋白質、蘿蔔硫素都補足</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 低碳飲食, 減醣瘦身湯！芝麻蘿蔔湯熱熱喝，蛋白質、蘿蔔硫素都補足]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-20 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13,698</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>一碗才300大卡！冬日吃鍋瘦身新選擇：低醣壽喜燒牛肉湯</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 低碳飲食, 一碗才300大卡！冬日吃鍋瘦身新選擇：低醣壽喜燒牛肉湯]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-28 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,833</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>台灣至少1千人還沒發現自己大腸癌！符合1特徵大腸癌風險竟高6倍</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 台灣至少1千人還沒發現自己大腸癌！符合1特徵大腸癌風險竟高6倍]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 283,153</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>《月薪嬌妻》星野源腦出血曾兩度開顱！天冷別忘做好4點防腦出血</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康百科, 疾病症狀介紹, 其他疾病症狀, 《月薪嬌妻》星野源腦出血曾兩度開顱！天冷別忘做好4點防腦出血]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 96,375</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3000,24 +2834,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>糖尿病暖胃控血糖首選！低GI薑黃豆漿鍋食譜，抗發炎、防失智</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 癌症關懷基金會, 糖尿病暖胃控血糖首選！低GI薑黃豆漿鍋食譜，抗發炎、防失智]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,167</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3046,48 +2878,44 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>喝飲料怕影響血壓？研究推薦喝這杯，夜間高血壓降10％！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 喝飲料怕影響血壓？研究推薦喝這杯，夜間高血壓降10％！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-21 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12,755</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>提神只會吞B群？3類食材快速消疲勞、心累的時候這樣吃才對</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 維生素, 提神只會吞B群？3類食材快速消疲勞、心累的時候這樣吃才對]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 337,250</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3138,72 +2966,66 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>維生素C比奇異果、柳橙多！柿子愛吃軟或脆？2招可控制</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 其他健康食材, 維生素C比奇異果、柳橙多！柿子愛吃軟或脆？2招可控制]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 88,367</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>降低血壓的黃金穴位！全身4大降血壓穴道不可不知</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 馬光中醫, 降低血壓的黃金穴位！全身4大降血壓穴道不可不知]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>斷開高血壓、高血糖、高血脂！中醫排濕氣3大法教你扭轉三高</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 馬光中醫, 斷開高血壓、高血糖、高血脂！中醫排濕氣3大法教你扭轉三高]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 149,795</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3254,96 +3076,88 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>不能放進微波爐加熱的8樣食物和容器，來看看你都答對了嗎？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 生活智慧, 不能放進微波爐加熱的8樣食物和容器，來看看你都答對了嗎？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77,069</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>高血壓吃什麼好？天冷血壓高，吃對9種食材自然清血降壓！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 高血壓/糖尿病飲食, 高血壓吃什麼好？天冷血壓高，吃對9種食材自然清血降壓！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201,688</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>害你高血糖、胃酸逆流！飯後做錯6件事，小心胃和胰臟遲早抗議</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 害你高血糖、胃酸逆流！飯後做錯6件事，小心胃和胰臟遲早抗議]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-11 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 283,825</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>小蘇打粉拖地、濕抹布擦窗戶都NG！達人：犯了4個錯當然越掃越髒</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 清潔/打掃, 小蘇打粉拖地、濕抹布擦窗戶都NG！達人：犯了4個錯當然越掃越髒]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 120,904</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3372,168 +3186,154 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>冬季補腎季！8款超優黑色食材，頭髮烏黑、排毒抗發炎</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 洛桑加參, 冬季補腎季！8款超優黑色食材，頭髮烏黑、排毒抗發炎]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80,199</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>宋慧喬瘦成螞蟻腰的豆腐減肥餐！醫師教你2訣竅排毒解便消水腫</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 宋慧喬瘦成螞蟻腰的豆腐減肥餐！醫師教你2訣竅排毒解便消水腫]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,319</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>打完疫苗體質改變！中醫師：3種特徵是腸胃內臟脂肪有「濕熱」</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 黃獻銘中醫師, 打完疫苗體質改變！中醫師：3種特徵是腸胃內臟脂肪有「濕熱」]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23,159</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>甜柿、紅柿、脆柿怎麼分？柿子品種多，口感、維生素C含量比一比！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 營養成分, 其他營養素, 甜柿、紅柿、脆柿怎麼分？柿子品種多，口感、維生素C含量比一比！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,148</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>丈夫過世她背債600萬元？保單受益人填錯，小心遺產稅找上門</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 小花平台保險＋, 丈夫過世她背債600萬元？保單受益人填錯，小心遺產稅找上門]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 676,100</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>有氧運動幫忙降血糖！最消耗熱量運動Top10，跳繩、跑步都沒進前3名</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 運動健身, 有氧運動, 有氧運動幫忙降血糖！最消耗熱量運動Top10，跳繩、跑步都沒進前3名]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-20 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331,016</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>血清素讓你整天好心情！10種純天然開心食物，幫助合成快樂荷爾蒙！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 血清素讓你整天好心情！10種純天然開心食物，幫助合成快樂荷爾蒙！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-15 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188,312</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3562,96 +3362,88 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>李應元罹壺腹癌68歲病逝！罕見壺腹癌早期難發覺，胃鏡檢查外4大徵兆該注意</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 李應元罹壺腹癌68歲病逝！罕見壺腹癌早期難發覺，胃鏡檢查外4大徵兆該注意]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-12 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 479,894</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>專剋下背痛的罪魁禍首！4招伸展鬆腿筋、自主緩解下背痛！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 運動, 放鬆舒緩運動, 伸展運動, 專剋下背痛的罪魁禍首！4招伸展鬆腿筋、自主緩解下背痛！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,739</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>天氣一冷就關節痛！自救關節痛不只熱敷，4個穴道幫助舒緩</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 中醫健康, 穴道導引, 天氣一冷就關節痛！自救關節痛不只熱敷，4個穴道幫助舒緩]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,698</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>迎香穴幫你克服過敏鼻塞！超簡單穴位按摩緩解鼻塞、改善鼻涕倒流</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 中醫健康, 穴道導引, 迎香穴幫你克服過敏鼻塞！超簡單穴位按摩緩解鼻塞、改善鼻涕倒流]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,038</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3680,24 +3472,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>落枕就按天柱穴！一招穴道按摩暢通氣血、舒緩僵硬，落枕快快好</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 中醫健康, 穴道導引, 落枕就按天柱穴！一招穴道按摩暢通氣血、舒緩僵硬，落枕快快好]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 877</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3770,72 +3560,66 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>9歲就吃出糖尿病前期！2招改善胰島素阻抗、逆轉糖尿病</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 9歲就吃出糖尿病前期！2招改善胰島素阻抗、逆轉糖尿病]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8,823</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>25歲頭昏、心悸、盜汗！這些超常見症狀原來是神經內分泌腫瘤</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 25歲頭昏、心悸、盜汗！這些超常見症狀原來是神經內分泌腫瘤]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,894</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>脖子上不痛的腫塊竟是癌！醫生：頸部腫塊5種特徵可能是惡性</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 脖子上不痛的腫塊竟是癌！醫生：頸部腫塊5種特徵可能是惡性]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 133</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3908,336 +3692,308 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>頭痛看這篇就行！刮痧、止痛茶、鬆筋按摩，中醫頭痛寶典招招都見效</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 中醫健康, 中醫養生, 頭痛看這篇就行！刮痧、止痛茶、鬆筋按摩，中醫頭痛寶典招招都見效]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,955</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>過敏性鼻炎不靠鼻噴劑如何自救？按4個通鼻穴位自己釋放組織胺</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 過敏性鼻炎不靠鼻噴劑如何自救？按4個通鼻穴位自己釋放組織胺]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-20 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,669</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>中醫治療異位性皮膚炎！養肺茶、排毒湯，止癢去濕3方略</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 中醫治療異位性皮膚炎！養肺茶、排毒湯，止癢去濕3方略]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,696</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>如何呵護私密處健康？專屬好菌是關鍵！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 如何呵護私密處健康？專屬好菌是關鍵！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18,864</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>腳上4個跡象顯示血管塞住了！如何及早搶通血管、恢復血流防猝死？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 照護線上, 腳上4個跡象顯示血管塞住了！如何及早搶通血管、恢復血流防猝死？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62,923</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>秋冬好發心臟衰竭比癌症更致命！但最明顯的3種症狀都與胸痛無關</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康百科, 疾病症狀介紹, 心血管疾病, 秋冬好發心臟衰竭比癌症更致命！但最明顯的3種症狀都與胸痛無關]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62,816</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>羊肉爐、薑母鴨、麻油雞熱量及鈉含量對決！擔心血壓高必知2訣竅</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 營養均衡, 羊肉爐、薑母鴨、麻油雞熱量及鈉含量對決！擔心血壓高必知2訣竅]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6,549</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>壺腹癌和胰臟癌同樣棘手！壺腹長腫瘤，身體用3種「變色」提醒你</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 壺腹癌和胰臟癌同樣棘手！壺腹長腫瘤，身體用3種「變色」提醒你]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 84,781</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>醫師全解析，營養大表「白」　選對優蛋白，防護更給力</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 醫師全解析，營養大表「白」　選對優蛋白，防護更給力]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,136</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>醫師觀察：長壽的人都做對8件小事！綠茶抗病毒、多1招防癌不失智</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 醫師觀察：長壽的人都做對8件小事！綠茶抗病毒、多1招防癌不失智]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 73,917</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>比存股簡單的債券穩賺攻略！退休族買債券ETF靠3個觀念養大搖錢樹</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 比存股簡單的債券穩賺攻略！退休族買債券ETF靠3個觀念養大搖錢樹]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 276,552</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>【健康社群影響力人物】超級學霸ICU醫師陳志金：救病人，也要救家屬</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 【健康社群影響力人物】超級學霸ICU醫師陳志金：救病人，也要救家屬]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21,415</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>疝氣是什麼？女生也會疝氣？一篇了解疝氣症狀、治療及預防</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 疝氣是什麼？女生也會疝氣？一篇了解疝氣症狀、治療及預防]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10,114</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>世界糖尿病日！控『醣』這樣做準沒錯</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 穩血糖, 控糖飲食保健, 控糖飲食保健, 世界糖尿病日！控『醣』這樣做準沒錯]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-16 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 166,125</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4266,72 +4022,66 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>媽媽簽了放棄急救，依舊插著鼻胃管離世…不插管急救＝不孝順？停止情緒勒索吧！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 身心健康, 其他身心健康, 媽媽簽了放棄急救，依舊插著鼻胃管離世…不插管急救＝不孝順？停止情緒勒索吧！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-17 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 147,992</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>醫師吃20年的降血糖好食！65歲糖尿病患跟著吃，血糖值半年降6％</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 高血壓/糖尿病飲食, 醫師吃20年的降血糖好食！65歲糖尿病患跟著吃，血糖值半年降6％]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 156,539</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>55歲肩痛當五十肩，竟是腎癌轉移！發現4種症狀腫瘤可能不小了</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 衛福部南投醫院, 55歲肩痛當五十肩，竟是腎癌轉移！發現4種症狀腫瘤可能不小了]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65,038</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4360,48 +4110,44 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>早上喝拿鐵血糖卻升高！最控糖早餐組合：蛋、咖啡可以這樣配</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 早上喝拿鐵血糖卻升高！最控糖早餐組合：蛋、咖啡可以這樣配]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335,657</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>腋下腫痛流膿？這些症狀快就醫，避免淋巴水腫、皮膚惡性腫瘤</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 腋下腫痛流膿？這些症狀快就醫，避免淋巴水腫、皮膚惡性腫瘤]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,117</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4430,48 +4176,44 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2分鐘抗過敏性鼻炎不鼻塞，睡前起床就按這些通鼻穴道！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 醫師觀點, 2分鐘抗過敏性鼻炎不鼻塞，睡前起床就按這些通鼻穴道！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6,692</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>女人好好疼愛自己，就從戒菸做起</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 女人好好疼愛自己，就從戒菸做起]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,672</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4522,144 +4264,132 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>促進血清素分泌、預防失智退化！博士：愛吃6種食物，大腦會逆齡</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 促進血清素分泌、預防失智退化！博士：愛吃6種食物，大腦會逆齡]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 123,446</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>年輕人失能第一原因竟是偏頭痛！不想少活4年的止痛清單這樣做</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 疼痛醫學, 頭痛/偏頭痛, 年輕人失能第一原因竟是偏頭痛！不想少活4年的止痛清單這樣做]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,842</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>溫差大心血管容易凍未條！研究：每天450ml咖啡中風機率降8％</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 咖啡, 溫差大心血管容易凍未條！研究：每天450ml咖啡中風機率降8％]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68,594</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>枕頭泛黃異味怎麼洗？2招枕頭清洗法，頭皮臭、口水漬輕鬆除乾淨</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 清潔/打掃, 枕頭泛黃異味怎麼洗？2招枕頭清洗法，頭皮臭、口水漬輕鬆除乾淨]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34,779</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>吃完薑母鴨猝死！高血壓小心主動脈剝離，90％有一個明顯症狀</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 吃完薑母鴨猝死！高血壓小心主動脈剝離，90％有一個明顯症狀]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 210,671</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>孩子喝水學問大　怎麼喝才健康？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 孩子喝水學問大　怎麼喝才健康？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15,429</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4688,72 +4418,66 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>開車時心臟病發怎麼辦？注意病發前4徵兆、保命一動作爭取救命時間</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 開車時心臟病發怎麼辦？注意病發前4徵兆、保命一動作爭取救命時間]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15,810</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>綠橘子放黃熟才吃？小心口感反變差！剝下橘子皮還有2清潔妙用</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 柑橘類水果, 綠橘子放黃熟才吃？小心口感反變差！剝下橘子皮還有2清潔妙用]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35,010</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>《食尚玩家》阿松一個習慣讓他4病纏身！腸子整條壞光、半年暴瘦10kg</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 《食尚玩家》阿松一個習慣讓他4病纏身！腸子整條壞光、半年暴瘦10kg]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216,818</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4804,120 +4528,110 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>日醫師：胃部泡水可能引發癌症！3種舌頭揪出你的「胃水腫」</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 日醫師：胃部泡水可能引發癌症！3種舌頭揪出你的「胃水腫」]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-27 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6,255</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>合法省下健保費的4個方法，全家有望一年少繳萬元！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 生活智慧, 合法省下健保費的4個方法，全家有望一年少繳萬元！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-18 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 254,599</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>紅茶、綠茶好處大對決！減肥降體脂、不傷胃，一張表教你馬上選對</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 營養師/營養醫學, 李婉萍營養師, 紅茶、綠茶好處大對決！減肥降體脂、不傷胃，一張表教你馬上選對]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18,244</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>不吃早餐也是經痛原因！不想再經痛，一圖看懂哪些該吃與不該吃</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 營養師/營養醫學, 李婉萍營養師, 不吃早餐也是經痛原因！不想再經痛，一圖看懂哪些該吃與不該吃]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 899</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>糖尿病造成失明90％可避免！醫生：1情形快速降血糖反而更危險</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 預防醫學/自然醫學, 中國醫大新竹附醫眼科主任陳瑩山醫師, 糖尿病造成失明90％可避免！醫生：1情形快速降血糖反而更危險]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,269</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4968,192 +4682,176 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>改善頻尿、腎炎、膀胱炎！5個補腎排毒穴道最防泌尿道感染</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 賴睿昕中醫師, 改善頻尿、腎炎、膀胱炎！5個補腎排毒穴道最防泌尿道感染]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,191</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>手腳冰冷、皮膚乾癢必看！推薦3款冬日熱飲，補血養胃又好眠</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 吳宛容中醫師, 手腳冰冷、皮膚乾癢必看！推薦3款冬日熱飲，補血養胃又好眠]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13,081</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>一個月無痛瘦3kg、連下午茶也照吃！減肥訣竅只有2個小改變</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 一個月無痛瘦3kg、連下午茶也照吃！減肥訣竅只有2個小改變]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 873</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>泡溫泉竟染淋病！安心泡湯3大訣竅，醫師：看這點選溫泉很重要</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 泡溫泉竟染淋病！安心泡湯3大訣竅，醫師：看這點選溫泉很重要]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,820</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>加齡臭是身體氧化的警訊！40歲後2招拒當癌症、高血壓候選人</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 對抗老化, 加齡臭是身體氧化的警訊！40歲後2招拒當癌症、高血壓候選人]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14,461</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2022生肖運勢曝光！3個生肖旺翻天，整年吉星加持、財神眷顧爆好運</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 生活智慧, 2022生肖運勢曝光！3個生肖旺翻天，整年吉星加持、財神眷顧爆好運]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 192,489</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6種食物會加重私密處異味！營養師：3種食材改善私密處臭臭</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 6種食物會加重私密處異味！營養師：3種食材改善私密處臭臭]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-28 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,455</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>愛吃3樣食物等於吃進大量致癌物！毒理專家教一招自救</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 愛吃3樣食物等於吃進大量致癌物！毒理專家教一招自救]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-19 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 339,628</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5182,72 +4880,66 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>花旗蔘只能用來秋冬養身？錯！營養師：青壯年靠『它』運動更帶勁！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 花旗蔘只能用來秋冬養身？錯！營養師：青壯年靠『它』運動更帶勁！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57,983</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>肝臟生病不只眼睛黃，還會用胃痛提醒你！養肝排毒必做2件事</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 肝臟生病不只眼睛黃，還會用胃痛提醒你！養肝排毒必做2件事]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8,240</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>六都最胖城市每10人有4個胖子！來學醫師用211餐盤瘦20kg不復胖</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 六都最胖城市每10人有4個胖子！來學醫師用211餐盤瘦20kg不復胖]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,256</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5276,24 +4968,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>改善口臭便祕！做對8件事，80歲有20歲的腸道，免疫好60％！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 改善口臭便祕！做對8件事，80歲有20歲的腸道，免疫好60％！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,824</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5344,24 +5034,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>理財專家阮慕驊5年狂瘦12kg！燃脂3大心法消內臟脂肪甩肉肚</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 理財專家阮慕驊5年狂瘦12kg！燃脂3大心法消內臟脂肪甩肉肚]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-20 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121,198</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5390,24 +5078,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>一個月擦撞2次不是開車不小心！醫師靠聊天揪元兇：竟是腦下垂體腫瘤</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康百科, 疾病症狀介紹, 疾病徵兆, 一個月擦撞2次不是開車不小心！醫師靠聊天揪元兇：竟是腦下垂體腫瘤]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,231</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5436,24 +5122,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>跑步降42％失智症發作率！研究揭3個訣竅最高降8成失智風險</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 身心健康, 銀髮族健康/長期照護, 跑步降42％失智症發作率！研究揭3個訣竅最高降8成失智風險]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,551</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5548,24 +5232,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>孫道存病逝留74億官司，家人拋棄繼承或限定繼承？律師告訴你2條路哪裡不同</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 孫道存病逝留74億官司，家人拋棄繼承或限定繼承？律師告訴你2條路哪裡不同]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-23 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 421,726</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5594,120 +5276,110 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>H2U永悅健康捐贈校園快篩試劑！德明科大致贈感謝狀：快篩如同護身符</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, H2U永悅健康捐贈校園快篩試劑！德明科大致贈感謝狀：快篩如同護身符]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-22 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,715</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>冬季你補對了嗎？「百草之王」6年根高麗蔘讓進補事半功倍 吃過的人這樣說！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 冬季你補對了嗎？「百草之王」6年根高麗蔘讓進補事半功倍 吃過的人這樣說！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63,600</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>溫體豬細菌比馬桶多千倍！譚敦慈教你一眼秒懂肉該怎麼挑</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 養生保健, 溫體豬細菌比馬桶多千倍！譚敦慈教你一眼秒懂肉該怎麼挑]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22,652</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>胸部大≠容易得乳癌！但一個原因真的讓乳癌風險高60％</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 生活、飲食達人, 養生專欄, 胸部大≠容易得乳癌！但一個原因真的讓乳癌風險高60％]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13,841</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>熬過今年迎超旺財運！2022虎年4大招財開運色、3招整年賺不停</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 生活智慧, 熬過今年迎超旺財運！2022虎年4大招財開運色、3招整年賺不停]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-24 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 85,387</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5736,24 +5408,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>【醫師觀點】選用隱形牙套 不能只考慮CP值！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 護口腔, 口腔清潔/保養知識, 其他口腔健康, 【醫師觀點】選用隱形牙套 不能只考慮CP值！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,046</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5914,24 +5584,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>換季收納整理，如何省時省空間？達人3步驟學起來，衣服好找又整齊</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康生活, 收納, 換季收納整理，如何省時省空間？達人3步驟學起來，衣服好找又整齊]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,929</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6048,48 +5716,44 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>肺癌因子釀心臟病、致死率高2成！研究揭最佳飲食抵抗血管致命毒</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 聰明飲食, 地中海飲食, 肺癌因子釀心臟病、致死率高2成！研究揭最佳飲食抵抗血管致命毒]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 270</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>太早太晚睡都不好！研究曝入睡的黃金時段，降24％心臟病風險</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 太早太晚睡都不好！研究曝入睡的黃金時段，降24％心臟病風險]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59,812</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6118,24 +5782,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>昆布水幫你排毒解便、降血壓！醫師：2招加料抗氧化力再補強</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 其他健康食材, 昆布水幫你排毒解便、降血壓！醫師：2招加料抗氧化力再補強]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6208,24 +5870,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>它升糖指數才地瓜的一半，卻越吃越胖！減肥吃4種假食物更胖又發炎</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 它升糖指數才地瓜的一半，卻越吃越胖！減肥吃4種假食物更胖又發炎]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 111,543</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6254,24 +5914,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>央行將升息？債券、股票、房地產，你的錢怎樣理財能抗通膨？</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 央行將升息？債券、股票、房地產，你的錢怎樣理財能抗通膨？]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-25 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121,603</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6300,24 +5958,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>氣喘、感冒、肺阻塞怎麼分辨？1分鐘內做不到這件事該檢查肺功能</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 健康顧問, 照護線上, 氣喘、感冒、肺阻塞怎麼分辨？1分鐘內做不到這件事該檢查肺功能]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,189</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6368,24 +6024,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>溫差大過敏鼻塞？10秒通鼻塞這樣做，告別冬天鼻塞困擾！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 溫差大過敏鼻塞？10秒通鼻塞這樣做，告別冬天鼻塞困擾！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 872</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6458,72 +6112,66 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>大吃後如何去油助消化？中醫2大方略教你除胃脹、消積食</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康專欄, 中醫師, 昌盛堂中醫診所, 大吃後如何去油助消化？中醫2大方略教你除胃脹、消積食]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-28 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 757</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>大腦20歲就開始變老！想一輩子沒失智，10大健腦食物吃出好腦力</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康飲食, 大腦20歲就開始變老！想一輩子沒失智，10大健腦食物吃出好腦力]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,179</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>燒餅油條、蔥油餅熱量多少？中式早餐10大熱量地雷：一餐就破800大卡</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 生活便利貼, 生活便利貼, 燒餅油條、蔥油餅熱量多少？中式早餐10大熱量地雷：一餐就破800大卡]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 657</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6596,96 +6244,88 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>從眼睛揪出高膽固醇症狀自救！40歲前就出現小心高血脂、心臟病</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 對抗老化, 從眼睛揪出高膽固醇症狀自救！40歲前就出現小心高血脂、心臟病]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-29 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 263</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>金馬影后林嘉欣，淋巴按摩瘦雙下巴、消水腫4大保養秘訣！</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 金馬影后林嘉欣，淋巴按摩瘦雙下巴、消水腫4大保養秘訣！]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,690</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>5張圖秒懂植化素！吃出健康好氣色</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 5張圖秒懂植化素！吃出健康好氣色]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16,847</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>打完疫苗大量出汗！補水有了它，健康更有效</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 健康小撇步, 打完疫苗大量出汗！補水有了它，健康更有效]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,224</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6802,72 +6442,66 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>40歲學存股，5年翻出千萬退休金！她這樣把股票成本「歸零」年領60萬股利</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康大未來, 理財健檢, 理財, 40歲學存股，5年翻出千萬退休金！她這樣把股票成本「歸零」年領60萬股利]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-27 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,122</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>金曲歌后艾怡良拚金馬！奉行5招減肥、喝外星人汁，10年狂甩16公斤</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 瘦身, 健康瘦身, 健康減肥方法, 金曲歌后艾怡良拚金馬！奉行5招減肥、喝外星人汁，10年狂甩16公斤]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-27 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,118</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>產季到，吃柳丁別只吸果汁！柳丁有黑點還能吃嗎？專家解答</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 飲食, 健康食材, 其他健康食材, 產季到，吃柳丁別只吸果汁！柳丁有黑點還能吃嗎？專家解答]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,947</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7204,24 +6838,22 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>最新南非變種病毒現身！突變更多、傳染力恐強過Delta？前台大醫解析</t>
+          <t>Oops!! 找不到您要瀏覽的頁面</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[
-首頁
-, 健康, 健康話題, 保健新聞, 最新南非變種病毒現身！突變更多、傳染力恐強過Delta？前台大醫解析]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021-11-26 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,453</t>
+          <t>None</t>
         </is>
       </c>
     </row>
